--- a/src/creditByActivitySector/assets/report.xlsx
+++ b/src/creditByActivitySector/assets/report.xlsx
@@ -37,7 +37,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>04-job</t>
+    <t>02-business-confidence</t>
   </si>
   <si>
     <t>By Sector Business Confidence indicator</t>
@@ -49,7 +49,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Quarter in the business-confidence-by-sector table could not be processed. It could be a problem format from header table row or column.</t>
+    <t>Was not able to save credit-by-activity-sector By Sector Business Confidence indicator</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>44836.80390701155</v>
+        <v>44855.73475084548</v>
       </c>
     </row>
   </sheetData>

--- a/src/creditByActivitySector/assets/report.xlsx
+++ b/src/creditByActivitySector/assets/report.xlsx
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>44855.73475084548</v>
+        <v>44856.30815808316</v>
       </c>
     </row>
   </sheetData>
